--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -769,79 +769,79 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M3" t="n">
         <v>4</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9</v>
+      </c>
+      <c r="U3" t="n">
         <v>11</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>9</v>
       </c>
-      <c r="V3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -1012,7 +1012,7 @@
         <v>5.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
         <v>1.55</v>
@@ -1026,7 +1026,7 @@
         <v>3.6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O5" t="n">
         <v>2.05</v>
@@ -1046,22 +1046,22 @@
         <v>35</v>
       </c>
       <c r="V5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="W5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="X5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="n">
         <v>12.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
@@ -1088,7 +1088,7 @@
         <v>11.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -659,19 +659,19 @@
         <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P2" t="n">
         <v>1.22</v>
@@ -686,10 +686,10 @@
         <v>2.63</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
@@ -891,18 +891,18 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>2.65</v>
@@ -914,67 +914,67 @@
         <v>1.6</v>
       </c>
       <c r="P4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="T4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V4" t="n">
+        <v>11</v>
+      </c>
+      <c r="W4" t="n">
+        <v>50</v>
+      </c>
+      <c r="X4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB4" t="n">
         <v>12.5</v>
       </c>
-      <c r="W4" t="n">
-        <v>55</v>
-      </c>
-      <c r="X4" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>16</v>
-      </c>
       <c r="AC4" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AD4" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.75</v>
+        <v>11.75</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
         <v>1.55</v>
@@ -1026,7 +1026,7 @@
         <v>3.6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O5" t="n">
         <v>2.05</v>
@@ -1046,22 +1046,22 @@
         <v>35</v>
       </c>
       <c r="V5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="W5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="X5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="n">
         <v>50</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>45</v>
       </c>
       <c r="Z5" t="n">
         <v>12.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
@@ -1088,7 +1088,7 @@
         <v>11.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1138,16 +1138,16 @@
         <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.29</v>
@@ -1171,7 +1171,7 @@
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1180,13 +1180,13 @@
         <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>41</v>
@@ -1198,10 +1198,10 @@
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>67</v>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1284,16 +1284,16 @@
         <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
@@ -1329,7 +1329,7 @@
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -769,49 +769,49 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V3" t="n">
         <v>9</v>
@@ -820,31 +820,31 @@
         <v>19</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -853,7 +853,7 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -891,18 +891,18 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>2.65</v>
@@ -914,34 +914,34 @@
         <v>1.6</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="W4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z4" t="n">
         <v>7.2</v>
@@ -959,22 +959,22 @@
         <v>500</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
         <v>3.85</v>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
         <v>4.75</v>
@@ -1132,10 +1132,10 @@
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" t="n">
         <v>1.14</v>
@@ -1183,16 +1183,16 @@
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
         <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1204,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1287,10 +1287,10 @@
         <v>12</v>
       </c>
       <c r="U7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W7" t="n">
         <v>23</v>
@@ -1329,7 +1329,7 @@
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -650,7 +650,7 @@
         <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
@@ -662,10 +662,10 @@
         <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N2" t="n">
         <v>1.44</v>
@@ -674,16 +674,16 @@
         <v>2.75</v>
       </c>
       <c r="P2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
         <v>13</v>
@@ -701,25 +701,25 @@
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -734,7 +734,7 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -802,25 +802,25 @@
         <v>2.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U3" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>26</v>
@@ -832,31 +832,31 @@
         <v>6.5</v>
       </c>
       <c r="AB3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE3" t="n">
         <v>13</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AF3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="n">
         <v>41</v>
       </c>
-      <c r="AD3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>41</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -926,22 +926,22 @@
         <v>1.9</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="U4" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="V4" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="W4" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
         <v>7.2</v>
@@ -959,22 +959,22 @@
         <v>500</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1040,7 +1040,7 @@
         <v>1.98</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U5" t="n">
         <v>35</v>
@@ -1052,10 +1052,10 @@
         <v>110</v>
       </c>
       <c r="X5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="n">
         <v>12.5</v>
@@ -1123,19 +1123,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
         <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
         <v>1.14</v>
@@ -1150,10 +1150,10 @@
         <v>2.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R6" t="n">
         <v>1.73</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U6" t="n">
         <v>8</v>
@@ -1189,13 +1189,13 @@
         <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1284,7 +1284,7 @@
         <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U7" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
@@ -680,13 +680,13 @@
         <v>3.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U2" t="n">
         <v>12</v>
@@ -722,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -790,10 +790,10 @@
         <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -811,16 +811,16 @@
         <v>7</v>
       </c>
       <c r="U3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
       </c>
       <c r="W3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>26</v>
@@ -829,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>51</v>
@@ -844,10 +844,10 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="H4" t="n">
         <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -914,10 +914,10 @@
         <v>1.6</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
         <v>1.72</v>
@@ -926,22 +926,22 @@
         <v>1.9</v>
       </c>
       <c r="T4" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="U4" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="V4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z4" t="n">
         <v>7.2</v>
@@ -959,22 +959,22 @@
         <v>500</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1026,7 +1026,7 @@
         <v>3.6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O5" t="n">
         <v>2.05</v>
@@ -1040,10 +1040,10 @@
         <v>1.98</v>
       </c>
       <c r="T5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="U5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V5" t="n">
         <v>17</v>
@@ -1058,13 +1058,13 @@
         <v>45</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
         <v>60</v>
@@ -1073,22 +1073,22 @@
         <v>400</v>
       </c>
       <c r="AE5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF5" t="n">
         <v>8</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.25</v>
       </c>
       <c r="AG5" t="n">
         <v>7.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI5" t="n">
         <v>11.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1123,19 +1123,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
         <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" t="n">
         <v>1.14</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U6" t="n">
         <v>8</v>
@@ -1171,7 +1171,7 @@
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1207,7 +1207,7 @@
         <v>81</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1284,13 +1284,13 @@
         <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
         <v>23</v>
@@ -1329,7 +1329,7 @@
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,43 +772,43 @@
         <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="O3" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U3" t="n">
         <v>8</v>
@@ -823,25 +823,25 @@
         <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>26</v>
@@ -862,7 +862,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GUDLhxkT</t>
+          <t>Y5MrdWYg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -872,115 +872,119 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Real Cundinamarca</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>2.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.5</v>
+      </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="N4" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T4" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="U4" t="n">
+        <v>17</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12</v>
+      </c>
+      <c r="W4" t="n">
+        <v>34</v>
+      </c>
+      <c r="X4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB4" t="n">
         <v>15</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AC4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF4" t="n">
         <v>10</v>
       </c>
-      <c r="W4" t="n">
-        <v>40</v>
-      </c>
-      <c r="X4" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00tQSuhM</t>
+          <t>S4FifA36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -990,111 +994,119 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Correcaminos</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>1.11</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15</v>
+      </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N5" t="n">
         <v>1.6</v>
       </c>
       <c r="O5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.4</v>
+      </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W5" t="n">
-        <v>110</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="AD5" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.9</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.9</v>
+        <v>51</v>
       </c>
       <c r="AH5" t="n">
-        <v>11.75</v>
+        <v>351</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.5</v>
+        <v>251</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOZhSWSp</t>
+          <t>SpJz215F</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1104,119 +1116,119 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V6" t="n">
         <v>9</v>
       </c>
-      <c r="U6" t="n">
-        <v>8</v>
-      </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>8.5</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z6" t="n">
         <v>9.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="n">
-        <v>151</v>
+        <v>1250</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8KCujzLi</t>
+          <t>GUDLhxkT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1226,65 +1238,61 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Real Cundinamarca</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K7" t="n">
-        <v>15</v>
-      </c>
+        <v>2.65</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>2.65</v>
       </c>
       <c r="N7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.6</v>
       </c>
-      <c r="O7" t="n">
-        <v>2.3</v>
-      </c>
       <c r="P7" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="U7" t="n">
         <v>15</v>
@@ -1293,45 +1301,517 @@
         <v>10</v>
       </c>
       <c r="W7" t="n">
+        <v>40</v>
+      </c>
+      <c r="X7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CKkF8nMk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FK Liepaja</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Riga FC</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>37</v>
+      </c>
+      <c r="V8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>110</v>
+      </c>
+      <c r="X8" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>00tQSuhM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Correcaminos</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T9" t="n">
+        <v>17</v>
+      </c>
+      <c r="U9" t="n">
+        <v>37</v>
+      </c>
+      <c r="V9" t="n">
+        <v>17</v>
+      </c>
+      <c r="W9" t="n">
+        <v>110</v>
+      </c>
+      <c r="X9" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SOZhSWSp</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K10" t="n">
+        <v>19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE10" t="n">
         <v>23</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>8KCujzLi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>12</v>
+      </c>
+      <c r="U11" t="n">
+        <v>15</v>
+      </c>
+      <c r="V11" t="n">
+        <v>10</v>
+      </c>
+      <c r="W11" t="n">
+        <v>23</v>
+      </c>
+      <c r="X11" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y11" t="n">
         <v>21</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z11" t="n">
         <v>15</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA11" t="n">
         <v>7</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB11" t="n">
         <v>11</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC11" t="n">
         <v>34</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD11" t="n">
         <v>101</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE11" t="n">
         <v>13</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF11" t="n">
         <v>17</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG11" t="n">
         <v>11</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH11" t="n">
         <v>29</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI11" t="n">
         <v>19</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ11" t="n">
         <v>23</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -772,46 +772,46 @@
         <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="O3" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
@@ -826,19 +826,19 @@
         <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -1025,52 +1025,52 @@
         <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="M5" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1079,7 +1079,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AD5" t="n">
         <v>101</v>
@@ -1097,10 +1097,10 @@
         <v>351</v>
       </c>
       <c r="AI5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="H7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.65</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1301,16 +1301,16 @@
         <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA7" t="n">
         <v>5.3</v>
@@ -1325,19 +1325,19 @@
         <v>500</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF7" t="n">
         <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>32</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1395,66 +1395,66 @@
         <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="S8" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="T8" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="U8" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="V8" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="W8" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="X8" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="n">
         <v>13.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD8" t="n">
         <v>350</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AG8" t="n">
         <v>7.1</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1624,10 +1624,10 @@
         <v>5.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P10" t="n">
         <v>1.25</v>
@@ -1660,7 +1660,7 @@
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
         <v>9.5</v>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
@@ -1767,10 +1767,10 @@
         <v>12</v>
       </c>
       <c r="U11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W11" t="n">
         <v>23</v>
@@ -1809,7 +1809,7 @@
         <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.02</v>
@@ -689,13 +689,13 @@
         <v>12</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -722,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -796,10 +796,10 @@
         <v>2.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
         <v>1.67</v>
@@ -808,10 +808,10 @@
         <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
@@ -823,7 +823,7 @@
         <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
@@ -832,7 +832,7 @@
         <v>7.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -841,7 +841,7 @@
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>26</v>
@@ -856,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>1.05</v>
@@ -1150,16 +1150,16 @@
         <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O6" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1168,40 +1168,40 @@
         <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD6" t="n">
         <v>1250</v>
@@ -1210,19 +1210,19 @@
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
       </c>
       <c r="AJ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1257,24 +1257,24 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.85</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.7</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="N7" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O7" t="n">
         <v>1.6</v>
@@ -1292,52 +1292,52 @@
         <v>1.9</v>
       </c>
       <c r="T7" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="U7" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W7" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
         <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD7" t="n">
         <v>500</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>32</v>
@@ -1520,10 +1520,10 @@
         <v>1.98</v>
       </c>
       <c r="T9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="U9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V9" t="n">
         <v>17</v>
@@ -1538,13 +1538,13 @@
         <v>45</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>60</v>
@@ -1553,10 +1553,10 @@
         <v>400</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AG9" t="n">
         <v>7.9</v>
@@ -1568,7 +1568,7 @@
         <v>11.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1603,13 +1603,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>1.02</v>
@@ -1618,10 +1618,10 @@
         <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
         <v>1.48</v>
@@ -1642,10 +1642,10 @@
         <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1663,7 +1663,7 @@
         <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="n">
         <v>17</v>
@@ -1675,19 +1675,19 @@
         <v>151</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>81</v>
       </c>
       <c r="AI10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -1731,13 +1731,13 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L11" t="n">
         <v>1.17</v>
@@ -1746,16 +1746,16 @@
         <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R11" t="n">
         <v>1.5</v>
@@ -1767,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="U11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V11" t="n">
         <v>9.5</v>
@@ -1782,7 +1782,7 @@
         <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
         <v>1.02</v>
@@ -686,22 +686,22 @@
         <v>2.5</v>
       </c>
       <c r="T2" t="n">
+        <v>13</v>
+      </c>
+      <c r="U2" t="n">
         <v>12</v>
-      </c>
-      <c r="U2" t="n">
-        <v>11</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
@@ -710,7 +710,7 @@
         <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>41</v>
@@ -722,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -1257,90 +1257,90 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="N7" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O7" t="n">
         <v>1.6</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="T7" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="U7" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="V7" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W7" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AE7" t="n">
         <v>8.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1503,7 +1503,7 @@
         <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N9" t="n">
         <v>1.6</v>
@@ -1517,55 +1517,55 @@
         <v>1.65</v>
       </c>
       <c r="S9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
+        <v>18</v>
+      </c>
+      <c r="U9" t="n">
+        <v>37</v>
+      </c>
+      <c r="V9" t="n">
         <v>16.5</v>
       </c>
-      <c r="U9" t="n">
-        <v>35</v>
-      </c>
-      <c r="V9" t="n">
-        <v>17</v>
-      </c>
       <c r="W9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="X9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>7.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD9" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF9" t="n">
         <v>8</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.25</v>
       </c>
       <c r="AG9" t="n">
         <v>7.9</v>
       </c>
       <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
         <v>11.75</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
@@ -1603,13 +1603,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.02</v>
@@ -1642,10 +1642,10 @@
         <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1660,10 +1660,10 @@
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB10" t="n">
         <v>17</v>
@@ -1675,19 +1675,19 @@
         <v>151</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>81</v>
       </c>
       <c r="AI10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -1728,46 +1728,46 @@
         <v>2.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.57</v>
       </c>
-      <c r="O11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V11" t="n">
         <v>9.5</v>
@@ -1779,25 +1779,25 @@
         <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>17</v>
@@ -1812,7 +1812,7 @@
         <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1289,28 +1289,28 @@
         <v>1.82</v>
       </c>
       <c r="S7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T7" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="U7" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="V7" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="W7" t="n">
+        <v>27</v>
+      </c>
+      <c r="X7" t="n">
         <v>23</v>
       </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
       <c r="Y7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA7" t="n">
         <v>5.9</v>
@@ -1322,25 +1322,25 @@
         <v>80</v>
       </c>
       <c r="AD7" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
         <v>1.65</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1526,49 +1526,49 @@
         <v>37</v>
       </c>
       <c r="V9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="W9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="X9" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y9" t="n">
         <v>45</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>40</v>
       </c>
       <c r="Z9" t="n">
         <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
         <v>55</v>
       </c>
       <c r="AD9" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE9" t="n">
         <v>7.8</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AG9" t="n">
         <v>7.9</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI9" t="n">
         <v>11.75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -784,16 +784,16 @@
         <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O3" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P3" t="n">
         <v>1.3</v>
@@ -802,10 +802,10 @@
         <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
         <v>9</v>
@@ -826,7 +826,7 @@
         <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>7.5</v>
@@ -1492,10 +1492,10 @@
         <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1503,7 +1503,7 @@
         <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N9" t="n">
         <v>1.6</v>
@@ -1520,43 +1520,43 @@
         <v>1.98</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="W9" t="n">
         <v>110</v>
       </c>
       <c r="X9" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="n">
         <v>50</v>
       </c>
-      <c r="Y9" t="n">
-        <v>45</v>
-      </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA9" t="n">
         <v>7.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD9" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
         <v>7.9</v>
@@ -1565,7 +1565,7 @@
         <v>11.75</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -790,10 +790,10 @@
         <v>4.33</v>
       </c>
       <c r="N3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P3" t="n">
         <v>1.3</v>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1.53</v>
@@ -1503,7 +1503,7 @@
         <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N9" t="n">
         <v>1.6</v>
@@ -1514,34 +1514,34 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T9" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="U9" t="n">
         <v>35</v>
       </c>
       <c r="V9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="W9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="X9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1550,22 +1550,22 @@
         <v>60</v>
       </c>
       <c r="AD9" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG9" t="n">
         <v>8</v>
       </c>
-      <c r="AF9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AH9" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI9" t="n">
         <v>11.75</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-03.xlsx
@@ -1260,10 +1260,10 @@
         <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1280,67 +1280,67 @@
         <v>1.6</v>
       </c>
       <c r="P7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T7" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U7" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="V7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AD7" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
         <v>1.53</v>
@@ -1503,10 +1503,10 @@
         <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O9" t="n">
         <v>2.05</v>
@@ -1514,34 +1514,34 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T9" t="n">
+        <v>16</v>
+      </c>
+      <c r="U9" t="n">
+        <v>37</v>
+      </c>
+      <c r="V9" t="n">
         <v>17.5</v>
       </c>
-      <c r="U9" t="n">
-        <v>35</v>
-      </c>
-      <c r="V9" t="n">
-        <v>17</v>
-      </c>
       <c r="W9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="X9" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y9" t="n">
         <v>50</v>
       </c>
-      <c r="Y9" t="n">
-        <v>45</v>
-      </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1553,22 +1553,22 @@
         <v>400</v>
       </c>
       <c r="AE9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG9" t="n">
         <v>7.8</v>
       </c>
-      <c r="AF9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>8</v>
-      </c>
       <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
         <v>11.25</v>
       </c>
-      <c r="AI9" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
